--- a/converting.xlsx
+++ b/converting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan\Darshan\CPR\Final Project V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D15D8E-DFC4-4B44-A2E6-69CAF0450AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B8D15D8E-DFC4-4B44-A2E6-69CAF0450AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{742691F3-6499-498C-B300-96A223F3AF9D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{6A7F2C3E-D6C8-4ED8-8672-EF3D939E9E51}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{6A7F2C3E-D6C8-4ED8-8672-EF3D939E9E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{0F62B069-6CF6-4EFE-81F2-939AE71706F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Version 1</t>
   </si>
@@ -209,6 +250,75 @@
   </si>
   <si>
     <t>The best fix for this would be using a different function like strtol, or expanding the scope of this function otherwise NOTHING can be done to implement it usefully.</t>
+  </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Run by:</t>
+  </si>
+  <si>
+    <t>Darshan Kalpeshbhai Prajapati</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>converting()-              atof()</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>double value</t>
+  </si>
+  <si>
+    <t>Returns 0.000000</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>it should quit this program</t>
+  </si>
+  <si>
+    <t>Returns 12345678.000000</t>
+  </si>
+  <si>
+    <t>333Welcome</t>
+  </si>
+  <si>
+    <t>Returns 333.000000</t>
+  </si>
+  <si>
+    <t>Hello there 123</t>
+  </si>
+  <si>
+    <t>It should return any double value except 0.000000 because that one is already allotted to another case.</t>
+  </si>
+  <si>
+    <t>UNEXPECTEDLY, it returns 0.000000 and ignores any value after space whether be it a character/number/ Or a space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best way fix for this problem is to avoid using spaces since it does not consider anything after spaces; also the scope of this function needs to expanded </t>
+  </si>
+  <si>
+    <t>Hellothere123</t>
+  </si>
+  <si>
+    <t>UNEXPECTEDLY, it returns 0.000000 and ignores the other numerical values after the alphabets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best way is to expand the scope of this function since it returns just one value(0.000000) for every value except any numeral and does not consider variations which is a big issue since variations in test cases decrease the chances of bugs. </t>
+  </si>
+  <si>
+    <t>+This function is basically used to convert string argument into an integer.it takes a string as an input and returns a double value.</t>
+  </si>
+  <si>
+    <t>-This function is basically used to convert string argument into an integer.it takes a string as an input and returns a double value.</t>
   </si>
 </sst>
 </file>
@@ -522,82 +632,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C387805-C065-4FC2-ABDB-FC0DDE145893}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCellId="1" sqref="A10:H18 A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,192 +1049,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="200" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="200" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="200" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="212.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="250" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" ht="100" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="22">
+        <v>12345678</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1123,6 +1420,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1236,15 +1542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1252,13 +1549,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEB9326-1818-436B-9FE9-5617B5B666EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC746E38-E4EF-4DD5-8C18-C80FA5963617}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC746E38-E4EF-4DD5-8C18-C80FA5963617}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEB9326-1818-436B-9FE9-5617B5B666EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75EED357-5772-448A-80F1-A80888E1EFF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75EED357-5772-448A-80F1-A80888E1EFF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/converting.xlsx
+++ b/converting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B8D15D8E-DFC4-4B44-A2E6-69CAF0450AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{742691F3-6499-498C-B300-96A223F3AF9D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{B8D15D8E-DFC4-4B44-A2E6-69CAF0450AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E47B5C-ADAD-476C-9817-95E9CD4EEEF3}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{6A7F2C3E-D6C8-4ED8-8672-EF3D939E9E51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{6A7F2C3E-D6C8-4ED8-8672-EF3D939E9E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{74F261D9-0757-4594-B4D3-9C6C8DD9D0F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>Version 1</t>
   </si>
@@ -320,12 +361,66 @@
   <si>
     <t>-This function is basically used to convert string argument into an integer.it takes a string as an input and returns a double value.</t>
   </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>converting()-              atol()</t>
+  </si>
+  <si>
+    <t>+This function basically  converts string argument into a long integer.it takes string as an input and returns a long integer.</t>
+  </si>
+  <si>
+    <t>It should return a  long Integer value.</t>
+  </si>
+  <si>
+    <t>Exitting the program</t>
+  </si>
+  <si>
+    <t>Program should quit</t>
+  </si>
+  <si>
+    <t>-This function basically  converts string argument into a long integer.it takes string as an input and returns a long integer.</t>
+  </si>
+  <si>
+    <t>Should return any long inteer except zero</t>
+  </si>
+  <si>
+    <t>The best fix is that we add a struct or a loop for special characters and assign a set of long integers so that they return value , and each time a unique one to maintain authenticity of the function.</t>
+  </si>
+  <si>
+    <t>Although it returns 3 which is acceptable as a  long integer but the main bug is that its skipping everything after a numeric string</t>
+  </si>
+  <si>
+    <t>The best fix is to add spaces and special characters in a different module so that each case is considered and there's no bug left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRIE123 cpr </t>
+  </si>
+  <si>
+    <t>12345%^&amp;*</t>
+  </si>
+  <si>
+    <t># # # #</t>
+  </si>
+  <si>
+    <t>123 Andrie</t>
+  </si>
+  <si>
+    <t>1123@seneca</t>
+  </si>
+  <si>
+    <t>Returns 1123</t>
+  </si>
+  <si>
+    <t>UNEXPECTEDLY, it returns zero which is not acceptable because for 3 unique cases it returned a same value that means there's bug somewhere.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +480,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -629,10 +732,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -703,23 +807,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -733,6 +847,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C387805-C065-4FC2-ABDB-FC0DDE145893}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="A10:H18 A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,13 +1167,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1234,13 +1352,13 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1390,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1284,7 +1402,7 @@
       <c r="D12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -1295,19 +1413,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="20" t="s">
@@ -1318,7 +1436,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1330,7 +1448,7 @@
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1341,7 +1459,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1353,7 +1471,7 @@
       <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -1364,7 +1482,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1376,18 +1494,18 @@
       <c r="D16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:7" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1399,7 +1517,7 @@
       <c r="D17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -1409,13 +1527,193 @@
         <v>53</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{AB16AFB2-1023-4AED-BCBB-D8131095D224}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
